--- a/public/sampleaddproduk.xlsx
+++ b/public/sampleaddproduk.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
-  <workbookPr defaultThemeVersion="202300"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Asus\OneDrive\Documents\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{768DE79E-F62E-4781-8CD3-E34202B2113E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{EDAD14B4-F6C0-4FC5-92D2-736AD7854A3C}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="11025"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -47,8 +41,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -153,7 +147,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
+        <a:latin typeface="Aptos Display"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -205,7 +199,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
+        <a:latin typeface="Aptos Narrow"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -419,27 +413,27 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DACE27B6-EBDD-4AB4-A49F-2EC71EC8348F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="11.90625" customWidth="1"/>
-    <col min="2" max="2" width="18.453125" customWidth="1"/>
+    <col min="1" max="1" width="11.875" customWidth="1"/>
+    <col min="2" max="2" width="18.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="15.6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
